--- a/biology/Zoologie/Diapheromeridae/Diapheromeridae.xlsx
+++ b/biology/Zoologie/Diapheromeridae/Diapheromeridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diapheromeridae sont une famille d'insectes de l'ordre des Phasmida (phasmes).
 Les représentants de cette famille sont notamment caractérisés par des antennes longues et fines[réf. nécessaire].
@@ -512,9 +524,11 @@
           <t>Liste des sous-familles et tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon  Species File              (1er juillet 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  Species File              (1er juillet 2021) :
 Diapheromerinae Kirby, 1904 (synonymes Bacteriinae Handlirsch, 1930, Bacterinae Handlirsch, 1930)
 Diapheromerini Kirby, 1904
 Ocnophilini Zompro, 2001
@@ -552,16 +566,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (1er juillet 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (1er juillet 2021) :
 Diapheromera Gray, 1835
 Megaphasma Caudell, 1903
 Manomera Rehn and Hebard, 1907
 Pseudosermyle Caudell, 1903
 Sermyle Stål, 1875
 Parabacillus Caudell, 1903
-Selon GBIF       (1er juillet 2021)[3] :
+Selon GBIF       (1er juillet 2021) :
 Acacus Brunner von Wattenwyl, 1907
 Acanthoderus Gray, 1835
 Acanthophasma Chen &amp; He, 2000
